--- a/biology/Biochimie/IGFBP-1/IGFBP-1.xlsx
+++ b/biology/Biochimie/IGFBP-1/IGFBP-1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L' Insulin-like growth factor-binding protein 1 (IGFBP-1) est une protéine codée dans le génome humain par le gène IGFBP1[5],[6] situé sur le chromosome 7 humain.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L' Insulin-like growth factor-binding protein 1 (IGFBP-1) est une protéine codée dans le génome humain par le gène IGFBP1, situé sur le chromosome 7 humain.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Fonction</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce gène fait partie de la famille des « insulin-like growth factor-binding proteins » (IGFBP) et code une protéine avec un domaine IGFBP et un domaine thyroglobuline. Cette protéine se fixe aux insulin-like growth factors (IGF1 et IGF2), et circule dans le plasma. L'association à cette protéine prolonge la demi-vie des IGF et altère leur interaction avec les récepteurs de surface cellulaire.
 </t>
@@ -542,10 +556,12 @@
           <t>Applications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>De par sa présence en grande quantité dans le liquide amniotique, l'IGFBP-1 est utilisée depuis plusieurs années comme marqueur biologique des ruptures prématurées des membranes (RPM)[7],[8],[9].
-On trouve également dans les cellules déciduales, une variante très phosphorylée de l'IGFBP-1 (IGFBP-1 ph) qui est utilisée comme marqueur dans le diagnostic des menaces d'accouchement prématuré (MAP)[10],[11].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>De par sa présence en grande quantité dans le liquide amniotique, l'IGFBP-1 est utilisée depuis plusieurs années comme marqueur biologique des ruptures prématurées des membranes (RPM).
+On trouve également dans les cellules déciduales, une variante très phosphorylée de l'IGFBP-1 (IGFBP-1 ph) qui est utilisée comme marqueur dans le diagnostic des menaces d'accouchement prématuré (MAP),.</t>
         </is>
       </c>
     </row>
